--- a/resources/excel/perumahan.xlsx
+++ b/resources/excel/perumahan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f0ef5f86b9659cf/Documents/test-pupr/coba-project/E-Catalogue/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B88F606-D3F5-4A55-B7C0-97DAEDD37BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7B88F606-D3F5-4A55-B7C0-97DAEDD37BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54A3C46-782A-463F-8B5B-DCF262E89841}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CA3C7FBF-D6E5-4F3C-BD1D-DFD124B641C4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Balai Pelaksana Penyediaan Perumahan Sumatera I</t>
   </si>
@@ -82,27 +82,6 @@
   </si>
   <si>
     <t>Balai Pelaksana Penyediaan Perumahan Papua II</t>
-  </si>
-  <si>
-    <t>Sekretariat DIrektorat Jenderal Perumahan</t>
-  </si>
-  <si>
-    <t>Direktorat Kepatuhan Intern</t>
-  </si>
-  <si>
-    <t>Direktorat Sistem dan Strategi Penyelenggaraan Perumahan</t>
-  </si>
-  <si>
-    <t>Direktorat Rumah Susun</t>
-  </si>
-  <si>
-    <t>Direktorat Rumah Swadaya</t>
-  </si>
-  <si>
-    <t>Direktorat Rumah Khusus</t>
-  </si>
-  <si>
-    <t>Direktorat Rumah Umum dan Komersial</t>
   </si>
 </sst>
 </file>
@@ -454,13 +433,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009555EB-9009-456C-A0F6-736E57E497D8}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -614,62 +596,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
